--- a/python/Hotcard Wave.xlsx
+++ b/python/Hotcard Wave.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 11/16/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 10/16/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -754,16 +754,56 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="16" t="n"/>
-      <c r="E5" s="13" t="n"/>
-      <c r="F5" s="16" t="n"/>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="12" t="n"/>
-      <c r="J5" s="12" t="n"/>
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>10/16/2025</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>YYY</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>123ABX097</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>FISB</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" s="16" t="inlineStr">
+        <is>
+          <t>PaymentsOne Debit</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="H5" s="16" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J5" s="12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="n"/>

--- a/python/Hotcard Wave.xlsx
+++ b/python/Hotcard Wave.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 10/16/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 01/26/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -756,7 +756,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>10/16/2025</t>
+          <t>01/26/2025</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">

--- a/python/Hotcard Wave.xlsx
+++ b/python/Hotcard Wave.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 05/26/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 01/01/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -704,12 +704,12 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>05/26/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>YYY</t>
+          <t>ZZZ</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">

--- a/python/Hotcard Wave.xlsx
+++ b/python/Hotcard Wave.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 01/01/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 02/01/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -704,12 +704,12 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>02/01/2025</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ZZZ</t>
+          <t>AAA</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">

--- a/python/Hotcard Wave.xlsx
+++ b/python/Hotcard Wave.xlsx
@@ -578,7 +578,7 @@
     <row r="1" ht="30" customFormat="1" customHeight="1" s="2" thickBot="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Hotcarding Spreadsheet - Wave 02/01/2025</t>
+          <t>Hotcarding Spreadsheet - Wave 03/01/2025</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -704,12 +704,12 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>02/01/2025</t>
+          <t>03/01/2025</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>AAA</t>
+          <t>CCC</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
